--- a/data/trans_camb/P8_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,75</t>
+          <t>-1,6; 1,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 0,28</t>
+          <t>-2,71; 0,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 3,84</t>
+          <t>-1,52; 3,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,42</t>
+          <t>-1,3; 3,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,94</t>
+          <t>-1,58; 2,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,97</t>
+          <t>-3,03; 1,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,96</t>
+          <t>-0,8; 1,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,19</t>
+          <t>-1,6; 1,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,23</t>
+          <t>-1,88; 1,41</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-68,65; 221,11</t>
+          <t>-66,37; 221,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 128,16</t>
+          <t>-100,0; 89,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-79,47; 505,55</t>
+          <t>-100,0; 411,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,54; 235,6</t>
+          <t>-40,18; 238,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,64; 216,84</t>
+          <t>-49,39; 165,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-98,58; 157,3</t>
+          <t>-98,36; 159,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 135,5</t>
+          <t>-34,08; 138,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-54,82; 89,52</t>
+          <t>-59,96; 90,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-78,95; 82,37</t>
+          <t>-75,83; 95,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 2,24</t>
+          <t>-1,45; 2,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,36</t>
+          <t>-1,49; 2,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 5,47</t>
+          <t>-0,48; 5,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,21</t>
+          <t>-2,78; 2,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,99</t>
+          <t>-2,78; 2,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,94; -1,74</t>
+          <t>-5,97; -1,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,64</t>
+          <t>-1,46; 1,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,66</t>
+          <t>-1,62; 1,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 0,99</t>
+          <t>-2,38; 1,04</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,51; 102,33</t>
+          <t>-37,99; 107,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,51; 108,37</t>
+          <t>-38,03; 118,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 223,47</t>
+          <t>-18,01; 259,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,39; 62,23</t>
+          <t>-46,14; 59,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,57; 53,12</t>
+          <t>-46,15; 56,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-91,61; -40,23</t>
+          <t>-91,78; -40,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,12; 52,03</t>
+          <t>-31,1; 56,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,56; 49,74</t>
+          <t>-33,69; 45,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-55,39; 31,34</t>
+          <t>-51,35; 33,64</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,35</t>
+          <t>-0,28; 4,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,15</t>
+          <t>-1,38; 3,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,95</t>
+          <t>-1,03; 4,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 6,29</t>
+          <t>-0,04; 6,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 2,25</t>
+          <t>-3,42; 2,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,31</t>
+          <t>-3,25; 2,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,69</t>
+          <t>0,34; 4,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,08</t>
+          <t>-1,84; 2,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,5</t>
+          <t>-1,56; 2,32</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 133,01</t>
+          <t>-7,24; 154,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,91; 98,23</t>
+          <t>-26,29; 109,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 123,58</t>
+          <t>-22,52; 142,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 92,02</t>
+          <t>-0,38; 96,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 34,54</t>
+          <t>-36,14; 36,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,25; 37,39</t>
+          <t>-34,18; 35,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,69; 90,14</t>
+          <t>4,44; 83,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 40,21</t>
+          <t>-26,24; 38,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 48,14</t>
+          <t>-21,6; 45,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 7,28</t>
+          <t>0,3; 7,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 8,09</t>
+          <t>1,2; 8,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,28; 29,54</t>
+          <t>2,93; 27,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 5,75</t>
+          <t>-3,56; 5,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 4,64</t>
+          <t>-4,16; 4,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 3,71</t>
+          <t>-4,85; 3,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 5,29</t>
+          <t>-0,31; 5,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,25</t>
+          <t>-0,55; 5,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 14,64</t>
+          <t>0,79; 15,46</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 133,97</t>
+          <t>1,76; 125,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12,32; 147,34</t>
+          <t>12,06; 148,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,33; 517,79</t>
+          <t>32,98; 528,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 43,86</t>
+          <t>-19,18; 42,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 35,75</t>
+          <t>-23,41; 34,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 30,61</t>
+          <t>-27,78; 27,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 52,91</t>
+          <t>-2,49; 53,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 51,5</t>
+          <t>-4,32; 51,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,11; 137,99</t>
+          <t>5,97; 146,56</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 4,62</t>
+          <t>-6,09; 4,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 4,16</t>
+          <t>-7,1; 4,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 4,65</t>
+          <t>-5,47; 4,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,34; 16,11</t>
+          <t>3,37; 16,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 10,37</t>
+          <t>-2,9; 10,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 2,2</t>
+          <t>-7,62; 2,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 8,53</t>
+          <t>0,31; 8,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 5,5</t>
+          <t>-2,59; 5,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 2,4</t>
+          <t>-5,3; 2,22</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-27,46; 26,12</t>
+          <t>-26,42; 28,31</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,04; 24,08</t>
+          <t>-30,38; 24,39</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 26,32</t>
+          <t>-22,58; 24,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,43; 68,8</t>
+          <t>11,47; 69,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 42,55</t>
+          <t>-9,63; 39,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,6; 9,42</t>
+          <t>-24,19; 11,85</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 38,75</t>
+          <t>1,07; 39,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 24,66</t>
+          <t>-9,97; 24,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 11,41</t>
+          <t>-19,63; 10,34</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,25; 17,48</t>
+          <t>5,26; 17,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 9,82</t>
+          <t>-2,05; 9,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 2,34</t>
+          <t>-9,13; 1,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 9,44</t>
+          <t>-1,55; 9,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,02; -0,0</t>
+          <t>-10,88; 0,02</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-28,24; -5,45</t>
+          <t>-28,02; -5,88</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,18; 10,93</t>
+          <t>2,73; 10,89</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 1,97</t>
+          <t>-5,77; 2,27</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-18,03; -4,49</t>
+          <t>-18,37; -4,55</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>13,07; 49,81</t>
+          <t>12,97; 49,53</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 27,63</t>
+          <t>-5,06; 26,08</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 7,04</t>
+          <t>-22,17; 4,55</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 15,33</t>
+          <t>-2,28; 14,96</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-16,76; -0,12</t>
+          <t>-16,33; -0,01</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-42,41; -8,71</t>
+          <t>-43,51; -9,37</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>5,8; 21,29</t>
+          <t>4,99; 21,35</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 3,9</t>
+          <t>-10,36; 4,65</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-33,1; -8,67</t>
+          <t>-34,45; -8,8</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,02</t>
+          <t>1,7; 5,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,32</t>
+          <t>1,01; 4,24</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,03; 9,72</t>
+          <t>3,08; 9,74</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,95</t>
+          <t>1,57; 5,78</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,21</t>
+          <t>-0,79; 3,55</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,38</t>
+          <t>-2,6; 2,44</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,12</t>
+          <t>2,33; 5,05</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,28</t>
+          <t>0,72; 3,33</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,94</t>
+          <t>1,32; 5,09</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>14,07; 47,82</t>
+          <t>14,66; 50,7</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>9,67; 41,93</t>
+          <t>8,03; 40,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>25,31; 90,4</t>
+          <t>25,57; 87,3</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,64; 29,21</t>
+          <t>7,08; 28,32</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 15,63</t>
+          <t>-3,56; 17,1</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 11,75</t>
+          <t>-11,41; 11,95</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>14,06; 32,16</t>
+          <t>13,49; 32,03</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>3,8; 20,9</t>
+          <t>4,28; 21,34</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>7,45; 30,43</t>
+          <t>7,3; 31,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,88</t>
+          <t>-1,4; 1,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 0,26</t>
+          <t>-2,63; 0,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,59</t>
+          <t>-1,82; 3,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,51</t>
+          <t>-1,25; 3,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,75</t>
+          <t>-1,45; 2,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 1,35</t>
+          <t>-3,16; 1,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,95</t>
+          <t>-0,84; 2,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,09</t>
+          <t>-1,54; 1,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 1,41</t>
+          <t>-1,8; 1,45</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-66,37; 221,13</t>
+          <t>-66,41; 228,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 89,35</t>
+          <t>-100,0; 114,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 411,82</t>
+          <t>-100,0; 435,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,18; 238,69</t>
+          <t>-40,34; 237,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,39; 165,99</t>
+          <t>-46,75; 181,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-98,36; 159,2</t>
+          <t>-98,54; 108,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,08; 138,39</t>
+          <t>-35,02; 137,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,96; 90,38</t>
+          <t>-60,78; 77,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-75,83; 95,09</t>
+          <t>-74,98; 101,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,39</t>
+          <t>-1,44; 2,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,4</t>
+          <t>-1,51; 2,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 5,9</t>
+          <t>-0,53; 5,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 2,14</t>
+          <t>-3,16; 2,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 2,06</t>
+          <t>-3,03; 2,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; -1,71</t>
+          <t>-5,92; -1,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,77</t>
+          <t>-1,45; 1,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,48</t>
+          <t>-1,63; 1,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,04</t>
+          <t>-2,57; 1,09</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 107,84</t>
+          <t>-34,87; 118,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,03; 118,91</t>
+          <t>-42,08; 120,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 259,96</t>
+          <t>-17,22; 278,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,14; 59,41</t>
+          <t>-49,21; 56,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,15; 56,43</t>
+          <t>-49,73; 55,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-91,78; -40,77</t>
+          <t>-91,04; -41,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 56,16</t>
+          <t>-30,8; 49,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,69; 45,26</t>
+          <t>-35,16; 49,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-51,35; 33,64</t>
+          <t>-55,57; 37,52</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 4,55</t>
+          <t>-0,64; 4,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,35</t>
+          <t>-1,52; 3,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 4,25</t>
+          <t>-1,27; 4,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 6,43</t>
+          <t>0,14; 6,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 2,56</t>
+          <t>-3,15; 2,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 2,33</t>
+          <t>-3,13; 2,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 4,52</t>
+          <t>0,52; 4,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,05</t>
+          <t>-1,85; 2,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 2,32</t>
+          <t>-1,46; 2,37</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 154,04</t>
+          <t>-13,68; 142,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 109,08</t>
+          <t>-29,69; 111,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,52; 142,37</t>
+          <t>-26,47; 133,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 96,62</t>
+          <t>1,48; 94,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,14; 36,86</t>
+          <t>-34,76; 36,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 35,19</t>
+          <t>-33,21; 37,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 83,79</t>
+          <t>7,02; 88,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 38,1</t>
+          <t>-25,82; 42,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 45,17</t>
+          <t>-21,78; 45,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 7,18</t>
+          <t>0,21; 7,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 8,21</t>
+          <t>0,83; 7,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,93; 27,93</t>
+          <t>2,92; 27,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 5,49</t>
+          <t>-3,0; 5,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 4,47</t>
+          <t>-4,01; 4,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 3,52</t>
+          <t>-4,92; 3,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 5,42</t>
+          <t>-0,4; 5,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 5,06</t>
+          <t>-0,32; 5,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 15,46</t>
+          <t>0,61; 14,46</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,76; 125,24</t>
+          <t>1,71; 130,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12,06; 148,82</t>
+          <t>9,34; 139,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,98; 528,17</t>
+          <t>35,86; 427,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 42,44</t>
+          <t>-17,47; 42,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,41; 34,32</t>
+          <t>-22,44; 36,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,78; 27,7</t>
+          <t>-28,22; 25,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 53,73</t>
+          <t>-3,15; 53,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 51,03</t>
+          <t>-2,8; 52,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,97; 146,56</t>
+          <t>4,84; 139,31</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 4,72</t>
+          <t>-6,15; 4,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 4,13</t>
+          <t>-7,11; 4,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 4,36</t>
+          <t>-5,42; 4,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,37; 16,32</t>
+          <t>3,38; 16,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 10,11</t>
+          <t>-2,15; 10,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 2,8</t>
+          <t>-8,19; 2,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 8,79</t>
+          <t>0,12; 8,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 5,41</t>
+          <t>-2,88; 5,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 2,22</t>
+          <t>-5,47; 2,14</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 28,31</t>
+          <t>-26,7; 26,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-30,38; 24,39</t>
+          <t>-29,28; 25,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 24,91</t>
+          <t>-22,97; 25,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,47; 69,11</t>
+          <t>10,71; 67,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 39,95</t>
+          <t>-7,23; 41,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 11,85</t>
+          <t>-26,26; 9,28</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,07; 39,8</t>
+          <t>0,39; 39,31</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 24,89</t>
+          <t>-11,08; 24,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 10,34</t>
+          <t>-20,41; 10,33</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,26; 17,33</t>
+          <t>5,02; 17,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 9,02</t>
+          <t>-2,04; 9,34</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 1,66</t>
+          <t>-8,51; 2,21</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 9,23</t>
+          <t>-1,2; 8,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 0,02</t>
+          <t>-11,16; -0,71</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-28,02; -5,88</t>
+          <t>-28,64; -5,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,73; 10,89</t>
+          <t>2,81; 11,19</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 2,27</t>
+          <t>-5,53; 2,29</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-18,37; -4,55</t>
+          <t>-18,31; -4,15</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>12,97; 49,53</t>
+          <t>12,51; 50,26</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 26,08</t>
+          <t>-4,99; 27,1</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 4,55</t>
+          <t>-20,67; 5,86</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 14,96</t>
+          <t>-1,8; 14,56</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-16,33; -0,01</t>
+          <t>-16,6; -1,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-43,51; -9,37</t>
+          <t>-44,49; -9,01</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>4,99; 21,35</t>
+          <t>5,04; 21,79</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 4,65</t>
+          <t>-10,0; 4,38</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-34,45; -8,8</t>
+          <t>-33,52; -8,1</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,28</t>
+          <t>1,74; 5,17</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,24</t>
+          <t>1,11; 4,1</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,08; 9,74</t>
+          <t>3,01; 9,82</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,78</t>
+          <t>1,7; 6,05</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,55</t>
+          <t>-0,79; 3,22</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,44</t>
+          <t>-2,44; 2,41</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,05</t>
+          <t>2,36; 5,0</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,33</t>
+          <t>0,75; 3,2</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,09</t>
+          <t>1,43; 5,0</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>14,66; 50,7</t>
+          <t>14,38; 49,17</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>8,03; 40,57</t>
+          <t>8,58; 39,17</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>25,57; 87,3</t>
+          <t>25,7; 90,23</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>7,08; 28,32</t>
+          <t>7,76; 29,88</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 17,1</t>
+          <t>-3,58; 15,71</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 11,95</t>
+          <t>-10,81; 11,7</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>13,49; 32,03</t>
+          <t>13,74; 31,69</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>4,28; 21,34</t>
+          <t>4,37; 20,04</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>7,3; 31,66</t>
+          <t>8,3; 31,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,79</t>
+          <t>-1,69; 1,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 0,26</t>
+          <t>-2,44; 0,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 3,73</t>
+          <t>-1,58; 3,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 3,36</t>
+          <t>-1,26; 3,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,8</t>
+          <t>-1,63; 2,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,15</t>
+          <t>-3,26; 0,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 2,09</t>
+          <t>-0,79; 1,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,04</t>
+          <t>-1,43; 1,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 1,45</t>
+          <t>-2,0; 1,23</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-66,41; 228,76</t>
+          <t>-68,65; 221,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 114,47</t>
+          <t>-100,0; 128,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 435,55</t>
+          <t>-79,47; 505,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 237,42</t>
+          <t>-40,54; 235,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,75; 181,41</t>
+          <t>-53,64; 216,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-98,54; 108,14</t>
+          <t>-98,58; 157,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,02; 137,53</t>
+          <t>-31,14; 135,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-60,78; 77,08</t>
+          <t>-54,82; 89,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-74,98; 101,93</t>
+          <t>-78,95; 82,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,47</t>
+          <t>-1,52; 2,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,8</t>
+          <t>-1,8; 2,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 5,95</t>
+          <t>-0,65; 5,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 2,15</t>
+          <t>-2,82; 2,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,12</t>
+          <t>-2,93; 1,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,92; -1,84</t>
+          <t>-5,94; -1,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,62</t>
+          <t>-1,46; 1,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,54</t>
+          <t>-1,55; 1,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 1,09</t>
+          <t>-2,63; 0,99</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,87; 118,55</t>
+          <t>-40,51; 102,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-42,08; 120,91</t>
+          <t>-46,51; 108,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 278,6</t>
+          <t>-22,22; 223,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,21; 56,72</t>
+          <t>-46,39; 62,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,73; 55,76</t>
+          <t>-48,57; 53,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-91,04; -41,03</t>
+          <t>-91,61; -40,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 49,08</t>
+          <t>-32,12; 52,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,16; 49,08</t>
+          <t>-33,56; 49,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-55,57; 37,52</t>
+          <t>-55,39; 31,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 4,33</t>
+          <t>-0,5; 4,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,23</t>
+          <t>-1,38; 3,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 4,13</t>
+          <t>-1,28; 3,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 6,49</t>
+          <t>0,07; 6,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 2,41</t>
+          <t>-3,43; 2,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 2,35</t>
+          <t>-3,2; 2,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,72</t>
+          <t>0,66; 4,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 2,13</t>
+          <t>-1,64; 2,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,37</t>
+          <t>-1,43; 2,5</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 142,68</t>
+          <t>-12,02; 133,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 111,34</t>
+          <t>-29,91; 98,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,47; 133,71</t>
+          <t>-25,61; 123,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,48; 94,96</t>
+          <t>-0,85; 92,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,76; 36,18</t>
+          <t>-35,55; 34,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,21; 37,41</t>
+          <t>-33,25; 37,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,02; 88,06</t>
+          <t>8,69; 90,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 42,52</t>
+          <t>-23,61; 40,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 45,74</t>
+          <t>-20,88; 48,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 7,41</t>
+          <t>0,31; 7,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,75</t>
+          <t>1,21; 8,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 27,03</t>
+          <t>3,28; 29,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 5,49</t>
+          <t>-2,96; 5,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 4,66</t>
+          <t>-3,77; 4,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 3,29</t>
+          <t>-4,92; 3,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 5,28</t>
+          <t>-0,11; 5,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 5,29</t>
+          <t>-0,49; 5,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 14,46</t>
+          <t>0,18; 14,64</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,71; 130,19</t>
+          <t>-0,5; 133,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,34; 139,71</t>
+          <t>12,32; 147,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>35,86; 427,15</t>
+          <t>38,33; 517,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 42,95</t>
+          <t>-16,86; 43,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,44; 36,69</t>
+          <t>-22,18; 35,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 25,54</t>
+          <t>-27,09; 30,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 53,33</t>
+          <t>-1,13; 52,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 52,44</t>
+          <t>-4,01; 51,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,84; 139,31</t>
+          <t>1,11; 137,99</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 4,77</t>
+          <t>-6,35; 4,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 4,3</t>
+          <t>-7,51; 4,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 4,43</t>
+          <t>-5,57; 4,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,38; 16,99</t>
+          <t>3,34; 16,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 10,05</t>
+          <t>-2,1; 10,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 2,24</t>
+          <t>-8,34; 2,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,12; 8,63</t>
+          <t>-0,1; 8,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 5,24</t>
+          <t>-2,69; 5,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 2,14</t>
+          <t>-5,25; 2,4</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 26,72</t>
+          <t>-27,46; 26,12</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 25,17</t>
+          <t>-31,04; 24,08</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 25,02</t>
+          <t>-23,8; 26,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>10,71; 67,14</t>
+          <t>11,43; 68,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 41,4</t>
+          <t>-6,55; 42,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 9,28</t>
+          <t>-25,6; 9,42</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,39; 39,31</t>
+          <t>-0,36; 38,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 24,15</t>
+          <t>-10,59; 24,66</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 10,33</t>
+          <t>-19,76; 11,41</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,02; 17,75</t>
+          <t>5,25; 17,48</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 9,34</t>
+          <t>-1,88; 9,82</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 2,21</t>
+          <t>-8,32; 2,34</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 8,97</t>
+          <t>-0,36; 9,44</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,16; -0,71</t>
+          <t>-11,02; -0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-28,64; -5,69</t>
+          <t>-28,24; -5,45</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,81; 11,19</t>
+          <t>3,18; 10,93</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 2,29</t>
+          <t>-5,73; 1,97</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-18,31; -4,15</t>
+          <t>-18,03; -4,49</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>12,51; 50,26</t>
+          <t>13,07; 49,81</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 27,1</t>
+          <t>-4,85; 27,63</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 5,86</t>
+          <t>-19,97; 7,04</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 14,56</t>
+          <t>-0,54; 15,33</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-16,6; -1,1</t>
+          <t>-16,76; -0,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-44,49; -9,01</t>
+          <t>-42,41; -8,71</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>5,04; 21,79</t>
+          <t>5,8; 21,29</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 4,38</t>
+          <t>-10,4; 3,9</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-33,52; -8,1</t>
+          <t>-33,1; -8,67</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,17</t>
+          <t>1,72; 5,02</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,1</t>
+          <t>1,14; 4,32</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,01; 9,82</t>
+          <t>3,03; 9,72</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,05</t>
+          <t>1,91; 5,95</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,22</t>
+          <t>-0,93; 3,21</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 2,41</t>
+          <t>-2,03; 2,38</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,0</t>
+          <t>2,43; 5,12</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,2</t>
+          <t>0,65; 3,28</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,0</t>
+          <t>1,28; 4,94</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>14,38; 49,17</t>
+          <t>14,07; 47,82</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>8,58; 39,17</t>
+          <t>9,67; 41,93</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>25,7; 90,23</t>
+          <t>25,31; 90,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>7,76; 29,88</t>
+          <t>8,64; 29,21</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 15,71</t>
+          <t>-4,12; 15,63</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 11,7</t>
+          <t>-8,78; 11,75</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>13,74; 31,69</t>
+          <t>14,06; 32,16</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>4,37; 20,04</t>
+          <t>3,8; 20,9</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>8,3; 31,11</t>
+          <t>7,45; 30,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,57</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 3,84</t>
+          <t>-1,63; 4,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,97</t>
+          <t>-3,47; 0,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,23</t>
+          <t>-2,05; 1,24</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-55,83%</t>
+          <t>-61,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-25,21%</t>
+          <t>-28,02%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-79,47; 505,55</t>
+          <t>-81,56; 509,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-98,58; 157,3</t>
+          <t>-98,42; 126,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-78,95; 82,37</t>
+          <t>-80,02; 82,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,93</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 5,47</t>
+          <t>-0,53; 5,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,94; -1,74</t>
+          <t>-6,13; -1,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 0,99</t>
+          <t>-2,63; 1,08</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>68,34%</t>
+          <t>71,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-74,29%</t>
+          <t>-77,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-21,79%</t>
+          <t>-23,67%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 223,47</t>
+          <t>-22,46; 230,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-91,61; -40,23</t>
+          <t>-93,62; -49,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-55,39; 31,34</t>
+          <t>-58,66; 29,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,31</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,95</t>
+          <t>-1,12; 4,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,31</t>
+          <t>-3,68; 1,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,5</t>
+          <t>-1,7; 2,29</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-5,94%</t>
+          <t>-10,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>4,98%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 123,58</t>
+          <t>-24,15; 126,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,25; 37,39</t>
+          <t>-39,31; 30,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 48,14</t>
+          <t>-22,95; 44,22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,47</t>
+          <t>28,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>14,66</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,28; 29,54</t>
+          <t>3,19; 62,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 3,71</t>
+          <t>-5,66; 2,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 14,64</t>
+          <t>-0,03; 41,95</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>144,61%</t>
+          <t>393,36%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,98%</t>
+          <t>-10,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>42,25%</t>
+          <t>129,95%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,33; 517,79</t>
+          <t>38,4; 1260,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 30,61</t>
+          <t>-30,68; 24,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,11; 137,99</t>
+          <t>-0,72; 399,68</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-1,68</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 4,65</t>
+          <t>-5,55; 4,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 2,2</t>
+          <t>-8,44; 2,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 2,4</t>
+          <t>-5,3; 2,29</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,79%</t>
+          <t>-1,7%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-9,62%</t>
+          <t>-10,08%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-6,62%</t>
+          <t>-6,93%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 26,32</t>
+          <t>-23,62; 26,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,6; 9,42</t>
+          <t>-26,02; 8,77</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 11,41</t>
+          <t>-20,05; 10,72</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>11,26</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-5,66</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-13,41</t>
+          <t>-27,62</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-8,83</t>
+          <t>-16,6</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,25; 17,48</t>
+          <t>0,16; 15,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 9,82</t>
+          <t>-3,07; 11,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 2,34</t>
+          <t>-10,17; 1,65</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 9,44</t>
+          <t>-6,43; 8,59</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,02; -0,0</t>
+          <t>-14,19; 0,82</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-28,24; -5,45</t>
+          <t>-46,52; -13,14</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,18; 10,93</t>
+          <t>-1,03; 9,83</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 1,97</t>
+          <t>-7,12; 3,04</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-18,03; -4,49</t>
+          <t>-30,96; -8,68</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>27,65%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-9,16%</t>
+          <t>-15,23%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-8,8%</t>
+          <t>-12,2%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-20,84%</t>
+          <t>-51,94%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>-4,86%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-16,62%</t>
+          <t>-40,28%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>13,07; 49,81</t>
+          <t>0,02; 68,04</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 27,63</t>
+          <t>-10,18; 47,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 7,04</t>
+          <t>-33,32; 7,08</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 15,33</t>
+          <t>-11,07; 17,21</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-16,76; -0,12</t>
+          <t>-24,58; 1,72</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-42,41; -8,71</t>
+          <t>-82,68; -25,08</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>5,8; 21,29</t>
+          <t>-2,35; 25,44</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 3,9</t>
+          <t>-16,36; 8,17</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-33,1; -8,67</t>
+          <t>-73,22; -21,61</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>14,21</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
+          <t>-3,48</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
           <t>5,13</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>3,91</t>
-        </is>
-      </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>-2,77</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,02</t>
+          <t>4,95; 23,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,32</t>
+          <t>-6,46; 11,07</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,03; 9,72</t>
+          <t>-11,63; 3,9</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,95</t>
+          <t>-1,42; 12,06</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,21</t>
+          <t>-12,77; 1,21</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,38</t>
+          <t>-7,58; 4,35</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,12</t>
+          <t>2,98; 14,1</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,28</t>
+          <t>-8,22; 3,1</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,94</t>
+          <t>-7,58; 2,42</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>45,93%</t>
+          <t>-6,53%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>-7,66%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>-3,94%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>-4,13%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>8,03; 49,02</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-11,53; 23,01</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-20,04; 8,14</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-1,82; 16,89</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-16,24; 1,66</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-9,48; 6,02</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 21,98</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-11,76; 4,63</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-10,77; 3,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>3,47</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>9,55</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>3,91</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>3,71</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>4,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 5,02</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 4,32</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 27,19</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>1,91; 5,95</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 3,21</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 1,26</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 5,12</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 3,28</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 15,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>31,07%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>24,15%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>85,59%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>18,23%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-4,95%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>22,65%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>25,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>14,07; 47,82</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>9,67; 41,93</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>25,31; 90,4</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>25,15; 248,6</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>8,64; 29,21</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-4,12; 15,63</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-8,78; 11,75</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-21,92; 6,01</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>14,06; 32,16</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>3,8; 20,9</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>7,45; 30,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>5,06; 89,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P8_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,75</t>
+          <t>-1,6; 1,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 0,28</t>
+          <t>-2,49; 0,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 4,1</t>
+          <t>-1,71; 3,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,42</t>
+          <t>-1,22; 3,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,94</t>
+          <t>-1,47; 2,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,48</t>
+          <t>-3,14; 0,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,96</t>
+          <t>-0,86; 2,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,19</t>
+          <t>-1,52; 1,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,24</t>
+          <t>-1,96; 1,45</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-68,65; 221,11</t>
+          <t>-67,91; 269,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 128,16</t>
+          <t>-100,0; 150,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,56; 509,59</t>
+          <t>-100,0; 396,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,54; 235,6</t>
+          <t>-40,56; 230,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,64; 216,84</t>
+          <t>-44,54; 226,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-98,42; 126,2</t>
+          <t>-97,84; 75,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 135,5</t>
+          <t>-32,36; 139,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-54,82; 89,52</t>
+          <t>-57,07; 80,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-80,02; 82,01</t>
+          <t>-79,9; 111,58</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 2,24</t>
+          <t>-1,41; 2,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,36</t>
+          <t>-1,71; 2,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 5,69</t>
+          <t>-0,4; 5,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,21</t>
+          <t>-2,98; 2,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,99</t>
+          <t>-3,26; 1,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; -1,96</t>
+          <t>-5,98; -1,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,64</t>
+          <t>-1,36; 1,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,66</t>
+          <t>-1,57; 1,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,08</t>
+          <t>-2,48; 1,13</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,51; 102,33</t>
+          <t>-37,69; 120,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,51; 108,37</t>
+          <t>-43,23; 108,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 230,89</t>
+          <t>-16,37; 250,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,39; 62,23</t>
+          <t>-43,8; 56,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,57; 53,12</t>
+          <t>-48,54; 51,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-93,62; -49,71</t>
+          <t>-92,06; -42,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,12; 52,03</t>
+          <t>-29,18; 57,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,56; 49,74</t>
+          <t>-34,28; 53,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-58,66; 29,58</t>
+          <t>-56,52; 34,9</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,35</t>
+          <t>-0,37; 4,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,15</t>
+          <t>-1,08; 3,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,16</t>
+          <t>-0,9; 3,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 6,29</t>
+          <t>0,22; 6,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 2,25</t>
+          <t>-3,39; 2,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 1,93</t>
+          <t>-3,69; 1,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,69</t>
+          <t>0,62; 4,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,08</t>
+          <t>-1,62; 2,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,29</t>
+          <t>-1,75; 2,26</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 133,01</t>
+          <t>-8,55; 137,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,91; 98,23</t>
+          <t>-21,41; 117,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 126,47</t>
+          <t>-20,84; 126,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 92,02</t>
+          <t>1,55; 104,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 34,54</t>
+          <t>-34,78; 38,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,31; 30,97</t>
+          <t>-38,32; 29,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,69; 90,14</t>
+          <t>7,84; 94,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 40,21</t>
+          <t>-23,08; 46,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 44,22</t>
+          <t>-23,78; 43,3</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 7,28</t>
+          <t>0,22; 7,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 8,09</t>
+          <t>0,98; 7,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 62,96</t>
+          <t>2,59; 66,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 5,75</t>
+          <t>-3,22; 5,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 4,64</t>
+          <t>-3,86; 4,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 2,85</t>
+          <t>-5,82; 2,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 5,29</t>
+          <t>-0,36; 5,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,25</t>
+          <t>-0,38; 5,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 41,95</t>
+          <t>0,51; 44,66</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 133,97</t>
+          <t>2,27; 124,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12,32; 147,34</t>
+          <t>7,2; 133,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,4; 1260,98</t>
+          <t>30,35; 1196,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 43,86</t>
+          <t>-18,54; 44,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 35,75</t>
+          <t>-22,48; 36,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,68; 24,46</t>
+          <t>-33,48; 16,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 52,91</t>
+          <t>-3,05; 52,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 51,5</t>
+          <t>-3,06; 52,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 399,68</t>
+          <t>3,47; 429,2</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 4,62</t>
+          <t>-6,69; 4,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 4,16</t>
+          <t>-6,89; 4,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 4,62</t>
+          <t>-5,83; 4,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,34; 16,11</t>
+          <t>3,49; 16,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 10,37</t>
+          <t>-2,66; 10,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 2,06</t>
+          <t>-8,56; 2,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 8,53</t>
+          <t>0,14; 9,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 5,5</t>
+          <t>-3,18; 5,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 2,29</t>
+          <t>-5,73; 1,66</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-27,46; 26,12</t>
+          <t>-28,81; 25,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,04; 24,08</t>
+          <t>-30,05; 23,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 26,32</t>
+          <t>-24,24; 26,06</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,43; 68,8</t>
+          <t>11,07; 68,45</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 42,55</t>
+          <t>-8,43; 40,74</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 8,77</t>
+          <t>-26,53; 8,53</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 38,75</t>
+          <t>0,45; 41,71</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 24,66</t>
+          <t>-12,28; 23,03</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 10,72</t>
+          <t>-21,8; 7,6</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,16; 15,45</t>
+          <t>0,41; 15,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 11,29</t>
+          <t>-2,9; 10,55</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 1,65</t>
+          <t>-10,59; 1,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 8,59</t>
+          <t>-5,68; 8,86</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 0,82</t>
+          <t>-14,25; 1,38</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-46,52; -13,14</t>
+          <t>-45,54; -12,68</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 9,83</t>
+          <t>-0,91; 9,57</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 3,04</t>
+          <t>-7,53; 2,92</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-30,96; -8,68</t>
+          <t>-29,42; -8,91</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,02; 68,04</t>
+          <t>0,86; 66,83</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 47,31</t>
+          <t>-10,02; 43,63</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-33,32; 7,08</t>
+          <t>-33,21; 7,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 17,21</t>
+          <t>-9,93; 18,17</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-24,58; 1,72</t>
+          <t>-25,04; 2,78</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-82,68; -25,08</t>
+          <t>-80,02; -24,37</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 25,44</t>
+          <t>-2,0; 24,9</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 8,17</t>
+          <t>-17,23; 7,66</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-73,22; -21,61</t>
+          <t>-67,31; -21,99</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>4,95; 23,61</t>
+          <t>5,5; 23,14</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 11,07</t>
+          <t>-6,76; 11,61</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 3,9</t>
+          <t>-12,11; 4,34</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 12,06</t>
+          <t>-1,49; 11,24</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 1,21</t>
+          <t>-13,13; 1,23</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 4,35</t>
+          <t>-6,99; 4,53</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,98; 14,1</t>
+          <t>3,09; 14,11</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 3,1</t>
+          <t>-8,26; 2,76</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 2,42</t>
+          <t>-7,66; 2,47</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>8,03; 49,02</t>
+          <t>9,55; 48,38</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 23,01</t>
+          <t>-11,58; 24,52</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 8,14</t>
+          <t>-20,38; 9,13</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 16,89</t>
+          <t>-1,66; 15,71</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 1,66</t>
+          <t>-16,72; 1,59</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 6,02</t>
+          <t>-8,86; 6,47</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>4,18; 21,98</t>
+          <t>4,36; 22,09</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 4,63</t>
+          <t>-11,7; 4,23</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 3,76</t>
+          <t>-10,76; 3,95</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,02</t>
+          <t>1,89; 5,17</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,32</t>
+          <t>1,04; 4,21</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>2,97; 27,19</t>
+          <t>2,99; 27,54</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,95</t>
+          <t>1,79; 5,93</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,21</t>
+          <t>-0,77; 3,13</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 1,26</t>
+          <t>-5,29; 1,23</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,12</t>
+          <t>2,31; 5,09</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,28</t>
+          <t>0,66; 3,35</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,83; 15,3</t>
+          <t>0,66; 14,55</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>14,07; 47,82</t>
+          <t>15,04; 49,25</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>9,67; 41,93</t>
+          <t>8,69; 40,97</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>25,15; 248,6</t>
+          <t>25,68; 257,17</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>8,64; 29,21</t>
+          <t>8,08; 29,41</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 15,63</t>
+          <t>-3,36; 15,36</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 6,01</t>
+          <t>-23,53; 5,78</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>14,06; 32,16</t>
+          <t>13,25; 32,01</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>3,8; 20,9</t>
+          <t>3,56; 21,05</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>5,06; 89,45</t>
+          <t>3,72; 86,65</t>
         </is>
       </c>
     </row>
